--- a/Data_Ayomide.xlsx
+++ b/Data_Ayomide.xlsx
@@ -5,18 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayomy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayomy\Documents\GitHub\GEO-SCIENCE-ML-MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A444A5E-7290-432E-BC59-A38B191DEB6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C43C3F-2DF2-453B-A030-718244086486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2F41C9CA-1066-4E5B-A03A-19125DA29C09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="15" xr2:uid="{2F41C9CA-1066-4E5B-A03A-19125DA29C09}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ref1_mean" sheetId="1" r:id="rId1"/>
-    <sheet name="Ref1_sd" sheetId="2" r:id="rId2"/>
-    <sheet name="Ref2_mean" sheetId="3" r:id="rId3"/>
-    <sheet name="Ref2_sd" sheetId="4" r:id="rId4"/>
+    <sheet name="1_Glassmeyer_2005" sheetId="11" r:id="rId1"/>
+    <sheet name="2_Isobe_mean" sheetId="12" r:id="rId2"/>
+    <sheet name="2_Isobe_sd" sheetId="13" r:id="rId3"/>
+    <sheet name="3_leeming_1996_mean" sheetId="15" r:id="rId4"/>
+    <sheet name="3_leeming_1996_sd" sheetId="16" r:id="rId5"/>
+    <sheet name="4_leeming_1998" sheetId="17" r:id="rId6"/>
+    <sheet name="5_Lu_2016_Ref2_mean" sheetId="3" r:id="rId7"/>
+    <sheet name="6_Nishimura_ref" sheetId="6" r:id="rId8"/>
+    <sheet name="7_Reeves_ref" sheetId="5" r:id="rId9"/>
+    <sheet name="8_Reichwaldt" sheetId="7" r:id="rId10"/>
+    <sheet name="9_Rontani_ref" sheetId="4" r:id="rId11"/>
+    <sheet name="10_Tolouei_ref" sheetId="8" r:id="rId12"/>
+    <sheet name="11_Tyagi_ref" sheetId="9" r:id="rId13"/>
+    <sheet name="11_Tyagi_sd" sheetId="10" r:id="rId14"/>
+    <sheet name="12_Vikaskumar_G_Shah_2007_mean" sheetId="1" r:id="rId15"/>
+    <sheet name="12_Vikaskumar_G_Shah_2007_sd" sheetId="2" r:id="rId16"/>
+    <sheet name="Sheet7" sheetId="18" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="64">
   <si>
     <t>Coprostanol</t>
   </si>
@@ -159,6 +173,75 @@
   </si>
   <si>
     <t>Reference Material : Evaluating potential applications of faecal sterols in distinguishing sources of faecal contamination from mixed faecal samples</t>
+  </si>
+  <si>
+    <t>Effluent</t>
+  </si>
+  <si>
+    <t>UNIT(ug/L)</t>
+  </si>
+  <si>
+    <t>REFERENCE MATERIAL:                  Assessment of Fecal Contamination in Oklahoma  Water Systems through the Use of Sterol Fingerprints</t>
+  </si>
+  <si>
+    <t>Only plants were listed in this paper</t>
+  </si>
+  <si>
+    <t>Nothing to extract in this paper</t>
+  </si>
+  <si>
+    <t>Nothing to extract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken </t>
+  </si>
+  <si>
+    <t>Effluent sample</t>
+  </si>
+  <si>
+    <t>unit ug/L</t>
+  </si>
+  <si>
+    <t>Unit(ug/g</t>
+  </si>
+  <si>
+    <t>Iso fucosterol</t>
+  </si>
+  <si>
+    <t>unit(cg/g)</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Brushtail possum</t>
+  </si>
+  <si>
+    <t>Ringtail possium</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>unit(ug/g)</t>
+  </si>
+  <si>
+    <t>Birds</t>
+  </si>
+  <si>
+    <t>JOURNAL NAME : Detecting and Distinguishing Sources of sewage pollution in australian inland and coastal waters</t>
+  </si>
+  <si>
+    <t>Glassmeyer 2005 Transport of chemical and microbial compounds from known wastewater discharges: Potential for use as indicators of human fecal contamination</t>
+  </si>
+  <si>
+    <t>unit : ug/g</t>
+  </si>
+  <si>
+    <t>Quantitative application of fecal sterols using gas chromatography - mass spectometry to investigate fecal pollution in tropical waters</t>
+  </si>
+  <si>
+    <t>unit: ug/g</t>
   </si>
 </sst>
 </file>
@@ -194,7 +277,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -510,11 +596,740 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F7E2A6-28E4-4CCA-99C3-EB13E7CF1997}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6545B6C4-4697-43C0-AE70-563D126D0423}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C124C0-832E-43F4-B9F3-B883F0FC49C0}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084C7E6C-CD58-428F-83C2-8EE8FDBF97AD}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BCD4B8-A8F5-429D-AE0A-458FEDA958C5}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1088</v>
+      </c>
+      <c r="C2" s="1">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1">
+        <v>476</v>
+      </c>
+      <c r="F2" s="1">
+        <v>290</v>
+      </c>
+      <c r="G2" s="1">
+        <v>198</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1">
+        <v>177</v>
+      </c>
+      <c r="E3" s="1">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1">
+        <v>136</v>
+      </c>
+      <c r="N3" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>353</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1">
+        <v>303</v>
+      </c>
+      <c r="F4" s="1">
+        <v>142</v>
+      </c>
+      <c r="G4" s="1">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1">
+        <v>288</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>528</v>
+      </c>
+      <c r="F5" s="1">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1">
+        <v>151</v>
+      </c>
+      <c r="N5" s="1">
+        <v>590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1E866D-61AA-450A-BB75-7ABE400EA6CB}">
+  <dimension ref="A1:R5"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1">
+        <v>88</v>
+      </c>
+      <c r="N2" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF574E8-546D-4D00-9F34-027CABE91D55}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,17 +1349,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1055,12 +1870,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408BAFAB-1110-44BB-B60B-27D719F56858}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,492 +1898,864 @@
     <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>577</v>
-      </c>
-      <c r="C2">
-        <v>2.3E-2</v>
-      </c>
-      <c r="E2">
-        <v>574</v>
-      </c>
-      <c r="F2">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>83</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>58</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>88</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.5</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4">
+        <v>577</v>
+      </c>
+      <c r="C4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E4">
+        <v>574</v>
+      </c>
+      <c r="F4">
         <v>38</v>
       </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-      <c r="E4">
-        <v>54</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
       <c r="I4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="I5">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>33</v>
-      </c>
       <c r="K5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O5">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="E6">
+        <v>54</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="O6">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0.06</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="O9">
         <v>8</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K10">
+        <v>0.9</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>5</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="O10">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I11">
-        <v>2.7E-2</v>
+        <v>16</v>
       </c>
       <c r="K11">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
         <v>0.2</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="E12">
-        <v>3543</v>
+        <v>18</v>
       </c>
       <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="K12">
         <v>5</v>
       </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>54</v>
-      </c>
       <c r="M12">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>295</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>0.9</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1706</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>2.7E-2</v>
       </c>
       <c r="K13">
-        <v>71</v>
+        <v>0.1</v>
       </c>
       <c r="M13">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>0.2</v>
       </c>
       <c r="C14">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>105</v>
+        <v>3543</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O14">
-        <v>489</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>7.0000000000000007E-2</v>
+        <v>0.3</v>
       </c>
       <c r="E15">
-        <v>48</v>
+        <v>1706</v>
       </c>
       <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>71</v>
+      </c>
+      <c r="M15">
         <v>0.9</v>
       </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
-      <c r="K15">
-        <v>9</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
       <c r="O15">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>0.2</v>
       </c>
       <c r="C16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E16">
+        <v>105</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>42</v>
+      </c>
+      <c r="M16">
+        <v>24</v>
+      </c>
+      <c r="O16">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+      <c r="C17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E17">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <v>0.9</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
         <v>0.02</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>24</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>0.3</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <v>7</v>
       </c>
-      <c r="K16">
+      <c r="K18">
         <v>6</v>
       </c>
-      <c r="M16">
+      <c r="M18">
         <v>0.9</v>
       </c>
-      <c r="O16">
+      <c r="O18">
         <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37546405-9083-41A2-B2E1-30DADE5A606B}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC31638-08B0-46CF-BF5D-E01AF883DB41}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E0C7A6-73D4-4287-B21A-617E0372B105}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>203</v>
+      </c>
+      <c r="C4" s="2">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2">
+        <v>223</v>
+      </c>
+      <c r="F4" s="2">
+        <v>128</v>
+      </c>
+      <c r="K4" s="2">
+        <v>56</v>
+      </c>
+      <c r="M4" s="2">
+        <v>66</v>
+      </c>
+      <c r="N4" s="2">
+        <v>377</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1577,11 +2764,1131 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFF575F-1654-48E7-BE5B-1460884DEA0F}">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F326C2-B092-41BC-AF9F-6C72DE19D23D}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.57</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8.23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="O4" s="2">
+        <v>8.32</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82E29AC-EA45-4FF9-9405-D51E7013089B}">
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>213</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>201</v>
+      </c>
+      <c r="F2" s="2">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2">
+        <v>184</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>169</v>
+      </c>
+      <c r="M2" s="2">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2">
+        <v>187</v>
+      </c>
+      <c r="P2" s="2">
+        <v>210</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45</v>
+      </c>
+      <c r="M3" s="2">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>11</v>
+      </c>
+      <c r="O3" s="2">
+        <v>218</v>
+      </c>
+      <c r="P3" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2">
+        <v>170</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>111</v>
+      </c>
+      <c r="F4" s="2">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>246</v>
+      </c>
+      <c r="J4" s="2">
+        <v>67</v>
+      </c>
+      <c r="K4" s="2">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>22</v>
+      </c>
+      <c r="N4" s="2">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
+        <v>196</v>
+      </c>
+      <c r="P4" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2">
+        <v>219</v>
+      </c>
+      <c r="C5" s="2">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>120</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <v>575</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
+        <v>328</v>
+      </c>
+      <c r="P5" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2">
+        <v>249</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>106</v>
+      </c>
+      <c r="F6" s="2">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>739</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2">
+        <v>57</v>
+      </c>
+      <c r="M6" s="2">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>338</v>
+      </c>
+      <c r="P6" s="2">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2">
+        <v>397</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>750</v>
+      </c>
+      <c r="F7" s="2">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>97</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2">
+        <v>48</v>
+      </c>
+      <c r="M7" s="2">
+        <v>27</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>240</v>
+      </c>
+      <c r="P7" s="2">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>11</v>
+      </c>
+      <c r="R7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>1569</v>
+      </c>
+      <c r="F8" s="2">
+        <v>71</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>118</v>
+      </c>
+      <c r="L8" s="2">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2">
+        <v>29</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>274</v>
+      </c>
+      <c r="P8" s="2">
+        <v>58</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>9</v>
+      </c>
+      <c r="R8" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E36EC7-8A85-40F4-A73E-962D5C32B9E0}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2">
+        <v>7</v>
+      </c>
+      <c r="O2" s="2">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>48</v>
+      </c>
+      <c r="P3" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>69</v>
+      </c>
+      <c r="J4" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>56</v>
+      </c>
+      <c r="P4" s="2">
+        <v>28</v>
+      </c>
+      <c r="R4" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>34</v>
+      </c>
+      <c r="P5" s="2">
+        <v>11</v>
+      </c>
+      <c r="R5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2">
+        <v>125</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2">
+        <v>114</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>165</v>
+      </c>
+      <c r="P6" s="2">
+        <v>75</v>
+      </c>
+      <c r="R6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2">
+        <v>167</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>108</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7</v>
+      </c>
+      <c r="L7" s="2">
+        <v>13</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7</v>
+      </c>
+      <c r="O7" s="2">
+        <v>70</v>
+      </c>
+      <c r="P7" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>664</v>
+      </c>
+      <c r="F8" s="2">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>21</v>
+      </c>
+      <c r="L8" s="2">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2">
+        <v>6</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>50</v>
+      </c>
+      <c r="P8" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C0A5A2-EBFC-4C24-BB4E-4C08A88C9C87}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3430</v>
+      </c>
+      <c r="E4" s="2">
+        <v>746</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2">
+        <v>170</v>
+      </c>
+      <c r="E6" s="2">
+        <v>111</v>
+      </c>
+      <c r="I6" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>649</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFF575F-1654-48E7-BE5B-1460884DEA0F}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,97 +3898,114 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1689,111 +4013,180 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C124C0-832E-43F4-B9F3-B883F0FC49C0}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22270D47-AF75-4049-A33C-772C30007AD6}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
+      <c r="A2" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A23DAE-A7D9-49A0-B191-1CA677D3DB6D}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
